--- a/BarraGenOut.xlsx
+++ b/BarraGenOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,18 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -461,10 +473,22 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/BarraGenOut.xlsx
+++ b/BarraGenOut.xlsx
@@ -464,31 +464,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
       <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
         <v>18</v>
       </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17</v>
-      </c>
       <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
         <v>19</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
